--- a/biology/Médecine/Victor_Adler/Victor_Adler.xlsx
+++ b/biology/Médecine/Victor_Adler/Victor_Adler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Victor Adler  (écrit également Viktor) est un médecin et homme politique autrichien, né le 24 juin 1852 à Prague (actuelle République tchèque) et mort le 11 novembre 1918 à Vienne. Fondateur en 1888 du Parti ouvrier social-démocrate d'Autriche (SAPÖ), il le préside jusqu'à sa mort. Il participe en 1889 à la création de la IIe Internationale, dont il reste un des membres les plus influents.
 </t>
@@ -511,7 +523,9 @@
           <t>Années de jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor était l'aîné des cinq enfants du négociant juif Salomon Markus Adler et de sa femme Johanna (née Herzl). Salomon, originaire du shtetl Lipnik (aujourd'hui Lipník nad Bečvou) en Moravie où son père était tailleur, étudia à Prague, puis déménagea (lorsque Victor eut 3 ans) dans le quartier juif de Vienne, Leopoldstadt. Ses entreprises devinrent florissantes et il acquit de nombreux biens immobiliers. Victor fit ses études au Schottengymnasium, collège catholique qui ne comptait qu'un petit nombre d'élèves d'origine juive.
 Il étudia ensuite la chimie, puis la médecine de 1872 à 1881 à l'Université de Vienne ; il devint ensuite l'assistant du psychiatre Theodor Meynert qui milita pour améliorer les conditions de vie des malades dans les asiles psychiatriques.
@@ -544,7 +558,9 @@
           <t>Du nationalisme pangermaniste à la démocratie sociale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme étudiant, Adler, influencé par les écrits de Friedrich Nietzsche, s'inscrit à la Burgenschaft Arminia dont le nom renvoie au chef germain Arminius (Hermann) et annonce la tendance Deutsch National (national-allemand) de cette confrérie.
 En 1882, au Congrès de Linz, Victor Adler (avec ses amis Engelbert Pernerstorfer et Heinrich Friedjung) secondera Georg von Schönerer, figure charismatique du mouvement pangermaniste, pour structurer la politique de ce mouvement qui tendait à allier l'aspiration à la démocratie, un anticapitalisme violent et la défense des intérêts allemands.
@@ -580,7 +596,9 @@
           <t>Fondation du Parti ouvrier social-démocrate</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ouvriers commencèrent à s'organiser dans l'Empire austro-hongrois pendant la Révolution de 1848 et divers mouvements socialistes émergèrent ensuite, stimulés par la modernisation et le développement de l'industrie (en particulier, en Bohême). Ces premières associations furent davantage influencées par le socialisme allemand et les idées de Ferdinand Lassalle que par celles de Karl Marx. Elles obtinrent le droit de grève en 1870. Ensuite, une scission eut lieu entre la tendance libérale (die Gemässtige) et la tendance radicale marxiste (die Radikale), cette dernière rejetant le parlementarisme.
 Victor Adler réussit à concilier ces deux tendances au Congrès de Hainfeld en 1888 et devint officiellement le leader incontesté du Parti ouvrier social-démocrate (SAPÖ) jusqu'à sa mort en 1918. Le mérite essentiel du nouveau parti, confronté au problème d'un État multinational, fut de rechercher, dans le cadre du régime impérial de François-Joseph Ier, une solution respectant la culture de chaque État.
@@ -616,7 +634,9 @@
           <t>Montée du nationalisme en 1914</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le problème du maintien de la paix fut une constante préoccupation des social-démocraties et de la Seconde Internationale. La déclaration de guerre signa la fin de l'internationalisme socialiste. L'allégeance à la nation allemande l'emporta sur les convictions internationalistes de Victor Adler, et comme la plupart des membres de la Seconde Internationale, il vota les crédits de la guerre.
 Une dernière réunion de l'Internationale à Bruxelles (juillet 1914) opposa la majorité des dirigeants aux pacifistes comme Jean Jaurès et Friedrich Adler. Ce dernier, qui avait été un des secrétaires du parti de son père, préféra donner sa démission.
@@ -650,7 +670,9 @@
           <t>Première République d'Autriche</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les défaites militaires de 1918 amenèrent les différentes nationalités de l'Empire à constituer des gouvernements provisoires reconnus par les Alliés, fondations des futurs États correspondants.
 Adler participa aux fondations de  la future République en Autriche et devint ministre des Affaires extérieures du gouvernement provisoire. Il préconisa le rattachement à l'Allemagne (Anschluss).
